--- a/TC_DoAn.xlsx
+++ b/TC_DoAn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ Án 2\DoAn2_PhamVanLam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DoAn4_PhamVanLam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6AB81-04EA-472C-8A72-9BCCA1C27357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2137910B-7261-4260-B2D2-07E9960669E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8016" xr2:uid="{D4F92EAB-39B8-4E19-A0CB-B5D378E9DEBB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8016" activeTab="5" xr2:uid="{D4F92EAB-39B8-4E19-A0CB-B5D378E9DEBB}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_DangNhap" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TC_GioHang" sheetId="4" r:id="rId3"/>
     <sheet name="TC_TimKiem" sheetId="3" r:id="rId4"/>
     <sheet name="TC_SanPham" sheetId="5" r:id="rId5"/>
+    <sheet name="TC_TtinTK" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="181">
   <si>
     <t>Back to TestReport</t>
   </si>
@@ -76,43 +77,21 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Bỏ trống email và password</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
-Thông báo "Không bỏ trống trường này"
-Làm mới trường thông tin để người dùng nhập lại</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>TC002</t>
   </si>
   <si>
-    <t>Bỏ trống email, nhập password</t>
-  </si>
-  <si>
     <t>Người dùng đã có tài khoản, chưa đăng nhập</t>
   </si>
   <si>
     <t>TC003</t>
   </si>
   <si>
-    <t>Nhập email, bỏ trống password</t>
-  </si>
-  <si>
     <t>TC004</t>
   </si>
   <si>
-    <t>Nhập đúng email, sai password (password &lt;8 ký tự)</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
-Thông báo "Thông tin không hợp lệ"
-Làm mới trường thông tin để người dùng nhập lại</t>
-  </si>
-  <si>
     <t>TC005</t>
   </si>
   <si>
@@ -122,13 +101,7 @@
     <t>TC006</t>
   </si>
   <si>
-    <t>Nhập sai email (không có "@","."), đúng password</t>
-  </si>
-  <si>
     <t>TC007</t>
-  </si>
-  <si>
-    <t>Nhập sai email (có khoảng trắng ở đầu), đúng password</t>
   </si>
   <si>
     <t>Expected Output 
@@ -140,9 +113,6 @@
   </si>
   <si>
     <t>TC010</t>
-  </si>
-  <si>
-    <t>Bỏ trống Họ của bạn, tên của bạn, ngày/tháng/năm sinh,email, mật khẩu, số điện thoại</t>
   </si>
   <si>
     <t xml:space="preserve">Người dùng chưa có tài khoản để đăng nhập vào hệ thống </t>
@@ -156,483 +126,532 @@
     <t>TC011</t>
   </si>
   <si>
-    <t>Bỏ trống Họ của bạn;nhập tên của bạn, ngày/tháng/năm sinh, email, mật khẩu, số điện thoại</t>
-  </si>
-  <si>
     <t>TC012</t>
   </si>
   <si>
-    <t>Bỏ trống ngày/tháng/năm sinh; nhập họ của bạn, tên của bạn, email, mật khẩu, số điện thoại</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
-    <t>Bỏ trống Tên của bạn; nhập họ của bạn, ngày/tháng/năm sinh, email, mật khẩu, số điện thoại</t>
-  </si>
-  <si>
     <t>TC014</t>
   </si>
   <si>
-    <t>Bỏ trống email; nhập Tên của bạn, họ của bạn, ngày/tháng/năm sinh, mật khẩu, số điện thoại</t>
-  </si>
-  <si>
     <t>TC015</t>
   </si>
   <si>
-    <t>Bỏ trống mật khẩu; nhập Tên của bạn, họ của bạn, ngày/tháng/năm sinh, email, số điện thoại</t>
-  </si>
-  <si>
     <t>TC016</t>
   </si>
   <si>
-    <t>Bỏ trống số điện thoại; nhập Tên của bạn, họ của bạn, ngày/tháng/năm sinh, mật khẩu, email</t>
-  </si>
-  <si>
     <t>TC017</t>
   </si>
   <si>
-    <t>Nhập Họ của bạn, tên của bạn, ngày/tháng/năm sinh,email ( không có "@","."), mật khẩu, số điện thoại</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
-Thông báo "Phải có @ và ."
-Làm mới trường thông tin để người dùng nhập lại</t>
-  </si>
-  <si>
     <t>TC018</t>
   </si>
   <si>
-    <t>Nhập Họ của bạn, tên của bạn, ngày/tháng/năm sinh,email, mật khẩu, số điện thoại (chứa ký tự chữ)</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
-Thông báo "Không khớp với định dạng được yêu cầu"
-Làm mới trường thông tin để người dùng nhập lại</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t>Nhập Họ của bạn, tên của bạn, ngày/tháng/năm sinh,email, mật khẩu, số điện thoại (&lt;10 ký tự )</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>TC026</t>
-  </si>
-  <si>
-    <t>TC027</t>
-  </si>
-  <si>
-    <t>TC028</t>
-  </si>
-  <si>
-    <t>TC029</t>
-  </si>
-  <si>
     <t>Phạm Văn Lâm</t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Bỏ trống tất cả các trường thông tin</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Thay đổi số lượng sản phẩm thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Không thay đổi số lượng sản phẩm thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Người đăng dùng nhập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ các trường thông tin</t>
+  </si>
+  <si>
+    <t>Người  dùng đăng nhập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Không nhập họ tên</t>
+  </si>
+  <si>
+    <t>Người dùng đăng nhập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>Không nhập email</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>Không nhập số điện thoại</t>
+  </si>
+  <si>
+    <t>Không nhập địa chỉ</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại lớn hơn hoặc bằng 11 số</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại có 10 số</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại có chứa chữ</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại có chứa kí tự đặc biệt</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>Nhập email không có ký tự "@", "."</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>Bỏ trống trường nhập tìm kiếm quần áo</t>
+  </si>
+  <si>
+    <t>Người dùng truy cập thành công vào hệ thống</t>
+  </si>
+  <si>
+    <t>Nhập tên tìm kiếm có chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Nhập tên tìm kiếm có cả chữ cả số</t>
+  </si>
+  <si>
+    <t>Tìm kiếm với từ khoá tuyệt đối</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị trang chủ gavil
++ Hiển thị dòng text "Kết quả tìm kiếm: polo #"
++ Hiển thị danh sách áo trong tên có chứa "polo" và "#"
++ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết quần áo</t>
+  </si>
+  <si>
+    <t>TC048</t>
+  </si>
+  <si>
+    <t>Hiển thị khi không tìm thấy quần áo</t>
+  </si>
+  <si>
+    <t>TC049</t>
+  </si>
+  <si>
+    <t>Hiển thị khi  tìm thấy quần áo</t>
+  </si>
+  <si>
+    <t>TC050</t>
+  </si>
+  <si>
+    <t>Bỏ trống sdt và password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng nhập
-B3: Bỏ trống Email
+B3: Bỏ trống sdt
 B4: Bỏ trống password
 B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trang chủ Gavil
+    <t xml:space="preserve">Hiển thị trang chủ Viettien
 Hiển thị giao diện đăng nhập
 Thông báo lỗi và yêu cầu nhập lại
 </t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
+Thông báo "Không được rỗng trường này"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Bỏ trống sdt nhập password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng nhập
-B3: Bỏ trống Email
+B3: Bỏ trống sdt
 B4: Nhập password: Vanlam2004@
 B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
+Thông báo "Số điện thoại không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập sdt, bỏ trống password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng nhập
-B3: Nhập Email: Vanlamp18@gmail.com
+B3: Nhập sdt: 0986096064
+B4: Bỏ trống password
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
+Thông báo "Mật khẩu không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập đúng sdt, sai password (password &lt;8 ký tự)</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
+Thông báo "Tài khoản không đúng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng đăng nhập
+B3: Nhập sdt: 0986096064
 B4: Nhập password: 123
 B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trang chủ https://galvin.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng đăng nhập
+B3: Nhập sdt: 0986096064
+B4: Nhập password: Vanlam2004@
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ https://viettien.vn/
 Hiển thị giao diện đăng nhập
 Thông báo lỗi và yêu cầu nhập lại
 </t>
   </si>
   <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>Nhập sai sdt (có @0, đúng password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng nhập
-B3: Nhập Email:Vanlamp18@gmail.com
-B4: Nhập password: Vanlam2004@
+B3: Nhập sdt: @0986096064
+B4: Nhập password: @Lam03062004
 B5: Nhấn "Đăng nhập"</t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng ký
-B3: Bỏ trống Họ của bạn
-B4: Bỏ trống Tên của bạn
-B5: Bỏ trống Ngày/Tháng/Năm sinh
-B6: Bỏ trống email
-B7: Bỏ trống mật khẩu
-B8: Bỏ trống số điện thoại
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị trang chủ https://galvin.com.vn/
+    <t>Nhập sai sdt (có khoảng trắng ở đầu), đúng password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng đăng nhập
+B3: Nhập sdt:  0986096064
+B4: Nhập password: @Lam03062004
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Nhập đúng sdt, sai password ( password chứa các ký tự đặc biệt)</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng Đăng nhập
+B3: Nhập sdt: 0986096064
+B4: Nhập password "#Vanlam2004@"
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
+Hiển thị giao diện đăng nhập
+Thông báo lỗi và yêu cầu nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập đúng sdt, sai password ( password chứa khoảng trắng 2 đầu)</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng Đăng nhập
+B3: Nhập sdt: 0986096064
+B4: Nhập password " Vanlam2004@ "
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Nhập sai sdt, đúng password (sdt có &gt;= 8 ký tự)</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn//
+B2: Chọn chức năng Đăng nhập
+B3: Nhập sdt: 098609606
+B4: Nhập password "Vanlam2004@
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng nhập
+Thông báo "Thông tin không đúng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Nhập sai sdt, đúng password (sdt có khoảng trắng 2 đầu)</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng Đăng nhập
+B3: Nhập sdt:   0986096064
+B4: Nhập password "Vanlam2004@
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Nhập sai cả sdt và password</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng Đăng nhập
+B3: Nhập sdt: 098609606#
+B4: Nhập password "#Vanlam2004@
+B5: Nhấn "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Bỏ trống họ và tên, email, sdt, password, repassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ https://viettien.vn/
 Hiển thị giao diện đăng ký
 Thông báo lỗi và yêu cầu nhập lại
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trang chủ Gavil
-Hiển thị giao diện đăng ký
-Thông báo lỗi và yêu cầu nhập lại
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
+Thông báo "Họ tên không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức năng đăng ký
+B3: Bỏ trống Họ và tên
+B4: Nhập Email: vanlamp18@gmail.com
+B5: Nhập sdt: 0986096064
+B6: Nhập passwork: @Lam03062004
+B7: Nhập Repasswork:
+B8: Nhấn "Đăng ký" 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
+    <t>Bỏ trống họ và tên; nhập email, sdt, password, repassword</t>
+  </si>
+  <si>
+    <t>Bỏ trống  email ; nhập họ và tên, sdt, password, repassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng ký
-B3: Bỏ trống Họ của bạn
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: Vanlamp18@gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0986096064
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Bỏ trống email
+B5: Nhập sdt: 0986096064
+B6: Nhập passwork: @Lam03062004
+B7: Nhập Repasswork:
+B8: Nhấn "Đăng ký" 
+</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
+Thông báo "Địa chỉ email không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Bỏ trống sdt; nhập họ và tên, email , password, repassword</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
+Thông báo "Số điện thoại không đúng định dạng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Bỏ trống  password; nhập họ và tên, email ,  sdt, repassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng ký
-B3: Nhập Họ của bạn: Phạm Văn 
-B4: Nhập Tên của bạn: Lâm
-B5: Bỏ trống Ngày/Tháng/Năm sinh
-B6: Nhập email: Vanlamp18@gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0986096064
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Nhập email: Vanlamp18@gmail.com
+B5: Bỏ trống sdt
+B6: Nhập password: @Lam03062004
+B7: Nhập Repasswork:
+B8: Nhấn "Đăng ký" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng ký
-B3: Nhập Họ của bạn: Phạm Văn
-B4: Bỏ trống Tên của bạn
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: Vanlamp18@gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0398037540
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
+B3: Bỏ trống Họ và tên
+B4: Bỏ trống Email
+B5: Bỏ trống Sdt
+B6: Bỏ trống Password
+ B7: Bỏ trống RepassworkB8: Nhấn "Đăng ký" 
+</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện đăng ký
+Thông báo "Mật khẩu không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Bỏ trống repassword; nhập họ và tên, email ,  sdt,  password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng ký
-B3: Nhập Họ của bạn: Phạm Văn
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Bỏ trống Email
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0986096064
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Nhập email: Vanlamp18@gmail.com
+B5: Nhập sdt: 0986096064
+B6: Nhập password: @Lam03062004
+B7: Bỏ trống repassword
+B8: Nhấn "Đăng ký" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Chọn chức năng đăng ký
-B3: Nhập Họ của bạn: Phạm Văn 
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: vanlamp18@gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Bỏ trống số điện thoại
-B5: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng ký
-B3:Nhập Họ của bạn: Phạm Văn 
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: vanlamp18gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0986096064
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng ký
-B3:Nhập Họ của bạn: Phạm Văn 
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: vanlamp18@gmail.com
-B7: Nhập mật khẩu: Vanlam2004@
-B8: Nhập số điện thoại: 0986096
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng ký
-B3: Nhập Họ của bạn: Phạm Văn
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: Vanlamp18@gmail.com
-B7: Bỏ trống mật khẩu
-B8: Nhập số điện thoại: 0986096064
-B5: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t>TC030</t>
-  </si>
-  <si>
-    <t>TC031</t>
-  </si>
-  <si>
-    <t>TC032</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: vanlamp18gmail.com
-B4: Nhập password: Vanlam2004@
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: " Vanlamp18@gmail.com"
-B4: Nhập password: Vanlam2004@
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>TC033</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>Nhập đúng email, sai password ( password chứa các ký tự đặc biệt)</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ Gavil
-Hiển thị giao diện đăng nhập
-Thông báo lỗi và yêu cầu nhập lại</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>Nhập đúng email, sai password ( password chứa khoảng trắng 2 đầu)</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng nhập
-B3: Nhập email "vanlamp18@gmail.com"
-B4: Nhập password " Vanlam2004@ "
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng nhập
-B3: Nhập email "vanlamp18@gmail.com"
-B4: Nhập password "#Vanlam2004@"
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Nhập sai email, đúng password (email có &gt;= 8 ký tự)</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng nhập
-B3: Nhập email "vanlamp1.8@gmail.com"
-B4: Nhập password "#Vanlam2004@
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng nhập
-B3: Nhập email "vanlamp1.8@gmail.com"
-B4: Nhập password "Vanlam2004@
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Nhập sai email, đúng password (email có khoảng trắng 2 đầu)</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng nhập
-B3: Nhập email " vanlamp1.8@gmail.com "
-B4: Nhập password "Vanlam2004@
-B5: Nhấn "Đăng nhập"</t>
-  </si>
-  <si>
-    <t>Nhập sai cả email và password</t>
-  </si>
-  <si>
-    <t>TC020</t>
-  </si>
-  <si>
-    <t>TC021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị trang chủ gavil
-Hiển thị giao diện đăng ký
-Thông báo lỗi và yêu cầu nhập lại
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Nhập email: Vanlamp18@gmail.com
+B5: Nhập sdt: 0986096064
+B6: Bỏ trống password
+B7: Nhập Repassword: @Lam03062004
+B8: Nhấn "Đăng ký" 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng đăng ký
-B3:Nhập Họ của bạn: Phạm Văn
-B4: Nhập Tên của bạn: Lâm
-B5: Nhập Ngày/Tháng/Năm sinh: 03/06/2004
-B6: Nhập email: vanlamp18@gmail.com
-B7: Nhập mật khẩu: @Vanlam2004
-B8: Nhập số điện thoại: 09860960aa
-B9: Nhấn "Đăng ký" </t>
-  </si>
-  <si>
-    <t>TC022</t>
-  </si>
-  <si>
-    <t>TC023</t>
-  </si>
-  <si>
-    <t>Bỏ trống tất cả các trường thông tin</t>
-  </si>
-  <si>
-    <t>Người dùng chưa có tài khoản để đăng nhập vào hệ thống</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ Gavil
-Hiển thị giao diện đăng ký
-Thông báo lỗi và yêu cầu nhập lại</t>
-  </si>
-  <si>
-    <t>TC024</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "1234567890"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "vanlamp18@gmail.com"
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>TC025</t>
-  </si>
-  <si>
-    <t>Nhập họ tên chứa các ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "#Vanlam"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "vanlamp18@gmail.com"
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>Nhập họ tên chứa khoảng trắng 2 đầu</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: " Pham Van Lam "
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "vanlamp18@gmail.com"
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>Nhập email có ít hơn 8 ký tự</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "1234567890"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "van.p18@gmail.com"
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>Nhập email &gt;= 8 ký tự</t>
-  </si>
-  <si>
-    <t>Nhập email có khoảng trắng 2 đầu</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "1234567890"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "vanlamp18@gmail.com"
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "1234567890"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: " vanlamp18@gmail.com "
-B6: Nhập mật khẩu: "@Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>Nhập password chứa các ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
-B2: Chọn chức năng Đăng ký
-B3: Nhập họ tên: "1234567890"
-B4: Nhập số điện thoại: "0986096064"
-B5: Nhập email: "vanlamp18@gmail.com"
-B6: Nhập mật khẩu: "#Vanlam2004"
-B7: Chọn giới tính: "Nam"
-B8: Chọn ngày sinh: "03/06/2004"
-B9: Nhấn nhận thông tin
-B10: Nhấn "Đăng ký"</t>
-  </si>
-  <si>
-    <t>TC034</t>
-  </si>
-  <si>
-    <t>TC035</t>
-  </si>
-  <si>
-    <t>Thay đổi số lượng sản phẩm thêm vào giỏ hàng</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Bỏ trống trường nhập thông tin tìm kiếm 
+B3: Nhấn tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ viettien
++ Hiển thị thông báo tìm kiếm trên Viettien</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị ra màn hình dòng text "Tìm kiếm trên Viettien "</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Nhập thông tin tìm kiếm "polo #" 
+B3: Nhấn để tìm kiếm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
+B2: Nhập thông tin tìm kiếm "polo 3" 
+B3: Nhấn chọn để tìm kiếm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
+B2: Nhập thông tin tìm kiếm "áo khoác" 
+B3: Nhấn chọn để tìm kiếm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị trang chủ Viettien
++ Hiển thị danh sách áo trong tên có chứa "polo" 
++ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách những sản phẩm trong tên có chứa "polo" 
++ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách những áo có tên polo và cả những áo không có tên polo
++ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách áo trong tên "áo khoác"
++ Mỗi áon được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Nhập thông tin tìm kiếm: " áo bigsize"
+B3: Nhấn chọn để tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách trống
++ Hiển thị thông báo không tìm nội dung bạn yêu cầu</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách trống</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Nhập thông tin tìm kiếm "polo" 
+B3: Nhấn chọn để tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách áo có tên: "polo"
++ Mỗi bộ truyện được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chủ Viettien
++ Hiển thị danh sách áo có tên polo
++ Mỗi áo được hiển thị bao gồm: màu sắc, hình ảnh, giá tiền, .
++ Làm mới trường nhập thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn một bộ quần áo bất kỳ
 B4: Nhấn Thêm vào giỏ hàng
@@ -640,45 +659,33 @@
 B6: Nhấn Cập nhật giỏ hàng</t>
   </si>
   <si>
-    <t>Hiển thị trang chủ gavil
+    <t>Hiển thị trang chủ Viettien
 + Hiển thị tất cả quần áo trong danh sách
 + Hiển thị danh sách quần áo trong giỏ hàng để tiến hành thanh toán
 + Hiển thị đúng số lượng, tên, hình ảnh, giá tiền của sản phẩm được thêm vào</t>
   </si>
   <si>
-    <t>Không thay đổi số lượng sản phẩm thêm vào giỏ hàng</t>
-  </si>
-  <si>
-    <t>Người đăng dùng nhập thành công vào hệ thống</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://galvin.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn một bộ quần áo bất kỳ
 B4: Nhấn Thêm vào giỏ hàng
 B5: Nhấn Cập nhật giỏ hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trang chủ gavil
+    <t xml:space="preserve">Hiển thị trang chủ Viettien
  Hiển thị tất cả quần áo trong danh sách
 + Hiển thị danh sách quần áo trong giỏ hàng để tiến hành thanh toán
 + Hiển thị đúng số lượng, tên, hình ảnh, giá tiền của sản phẩm được thêm vào
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Hiển thị trang chủ gavil
+    <t xml:space="preserve"> Hiển thị trang chủ Viettien
 + Hiển thị tất cả quần áo trong danh sách
 + Hiển thị danh sách quần áo trong giỏ hàng để tiến hành thanh toán
 + Hiển thị đúng số lượng, tên, hình ảnh, giá tiền của sản phẩm được thêm vào</t>
   </si>
   <si>
-    <t>Nhập đầy đủ các trường thông tin</t>
-  </si>
-  <si>
-    <t>Người  dùng đăng nhập thành công vào hệ thống</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -688,14 +695,14 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trang chủ gavil
+    <t xml:space="preserve">Hiển thị trang chủ Viettien
 + Hiển thị tất cả quần áo trong danh sách
 + Hiển thị danh sách quần áo trong giỏ hàng để tiến hành thanh toán
 + Hiển thị đúng số lượng, tên, hình ảnh, giá tiền của sản phẩm được thêm vào
 </t>
   </si>
   <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -703,13 +710,7 @@
 </t>
   </si>
   <si>
-    <t>Không nhập họ tên</t>
-  </si>
-  <si>
-    <t>Người dùng đăng nhập thành công vào hệ thống</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -720,13 +721,18 @@
 </t>
   </si>
   <si>
-    <t>TC036</t>
-  </si>
-  <si>
-    <t>Không nhập email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
+B2: Đăng nhập tài khoản 
+B3: Nhấn chọn giỏ hàng
+B5: Nhấn Thanh toán
+B6: Nhập họ tên: "Phạm Văn Lâm"
+B7: Nhập email: "vanlamp18@gmail.com"
+B8: Nhập điện thoại: "0986096064"
+B9:Không nhập địa chỉ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn//
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -737,13 +743,7 @@
 </t>
   </si>
   <si>
-    <t>TC037</t>
-  </si>
-  <si>
-    <t>Không nhập số điện thoại</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -754,30 +754,7 @@
 </t>
   </si>
   <si>
-    <t>Không nhập địa chỉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
-B2: Đăng nhập tài khoản 
-B3: Nhấn chọn giỏ hàng
-B5: Nhấn Thanh toán
-B6: Nhập họ tên: "Phạm Văn Lâm"
-B7: Nhập email: "vanlamp18@gmail.com"
-B8: Nhập điện thoại: "0986096064"
-B9:Không nhập địa chỉ
-</t>
-  </si>
-  <si>
-    <t>TC038</t>
-  </si>
-  <si>
-    <t>TC039</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại lớn hơn hoặc bằng 11 số</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -787,13 +764,7 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t>TC040</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại có 10 số</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -803,13 +774,7 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t>TC041</t>
-  </si>
-  <si>
-    <t>Nhập số điện thoại có chứa chữ</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -819,10 +784,7 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t>Nhập số điện thoại có chứa kí tự đặc biệt</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -832,13 +794,7 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t>TC042</t>
-  </si>
-  <si>
-    <t>Nhập email không có ký tự "@", "."</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Đăng nhập tài khoản 
 B3: Nhấn chọn giỏ hàng
 B5: Nhấn Thanh toán
@@ -848,168 +804,71 @@
 B9: Nhập địa chỉ: "Phần Lâm, Đào Dương, Ân Thi, Hưng Yên"</t>
   </si>
   <si>
-    <t>TC043</t>
-  </si>
-  <si>
-    <t>TC044</t>
-  </si>
-  <si>
-    <t>TC045</t>
-  </si>
-  <si>
-    <t>TC046</t>
-  </si>
-  <si>
-    <t>Bỏ trống trường nhập tìm kiếm quần áo</t>
-  </si>
-  <si>
-    <t>Người dùng truy cập thành công vào hệ thống</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
-B2: Bỏ trống trường nhập thông tin tìm kiếm 
-B3: Nhấn tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị thông báo không tìm thấy kết quả phù hợp với quần áo cần tìm kiếm</t>
-  </si>
-  <si>
-    <t>Nhập tên tìm kiếm có chứa ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm: polo" (bị bỏ đi dấu #)
-+ Hiển thị danh sách những áo có tên polo và cả những áo không có tên polo
-+ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị ra màn hình dòng text "Không tìm thấy kết quả tìm kiếm phù hợp cho: "</t>
-  </si>
-  <si>
-    <t>Nhập tên tìm kiếm có cả chữ cả số</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
-B2: Nhập thông tin tìm kiếm "polo 3" 
-B3: Nhấn chọn để tìm kiếm
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm: du 2"
-+ Hiển thị danh sách áo trong tên có chứa "polo" và "3"
-+ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm: polo 2"
-+ Hiển thị danh sách những bộ truyện trong tên có chứa "polo" và "3"
-+ Mỗi áo được hiển thị bao gồm: tênáo, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>Tìm kiếm với từ khoá tuyệt đối</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1: Truy cập vào website https://gavil.com.vn/
-B2: Nhập thông tin tìm kiếm "áo polo uq dry" 
-B3: Nhấn chọn để tìm kiếm
-</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm:áo polo uq dry"
-+ Hiển thị danh sách áo trong tên "áo polo uq dry"
-+ Mỗi áon được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
-B2: Nhập thông tin tìm kiếm "polo #" 
-B3: Nhấn để tìm kiếm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm: polo #"
-+ Hiển thị danh sách áo trong tên có chứa "polo" và "#"
-+ Mỗi áo được hiển thị bao gồm: tên áo, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>TC047</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết quần áo</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
+    <t>B1: Truy cập vào website https://viettien.vn/
 B2: Nhấn chọn sản phẩm quần áo bất kỳ</t>
   </si>
   <si>
-    <t>Hiển thị trang chủ gavil
+    <t>Hiển thị trang chủ Viettien
 + Hiển thị trang chi tiết quần áo
 + Hiển thị được toàn bộ thông tin như size quần áo, tình trạng, hình ảnh minh hoạ, tên quần áo, giá tiền, màu sắc, số lượng, ...
 + Hiển thị các các nút thêm vào giỏ hàng, thanh toán, thêm và yêu thích để thực hiện chức năng tương ứng</t>
   </si>
   <si>
-    <t>TC048</t>
-  </si>
-  <si>
-    <t>Hiển thị khi không tìm thấy quần áo</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
-B2: Nhập thông tin tìm kiếm: " áo bigsize"
-B3: Nhấn chọn để tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị danh sách trống
-+ Hiển thị thông báo không tìm nội dung bạn yêu cầu</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị danh sách trống
-+ Hiển thị ra màn hình dòng text "Không tìm thấy "". Vui lòng kiểm tra chính tả, sử dụng các từ tổng quát hơn và thử lại!"</t>
-  </si>
-  <si>
-    <t>TC049</t>
-  </si>
-  <si>
-    <t>Hiển thị khi  tìm thấy quần áo</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https://gavil.com.vn/
-B2: Nhập thông tin tìm kiếm "polo" 
-B3: Nhấn chọn để tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ gavil
-+ Hiển thị dòng text "Kết quả tìm kiếm: "polo"
-+ Hiển thị danh sách áo có tên polo
-+ Mỗi áo được hiển thị bao gồm: màu sắc, hình ảnh, giá tiền, size.
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chủ NXB Kim Đồng
-+ Hiển thị dòng text "Kết quả tìm kiếm: CONAN"
-+ Hiển thị danh sách những bộ truyện có tên conan
-+ Mỗi bộ truyện được hiển thị bao gồm: tên truyện, hình ảnh, giá tiền
-+ Làm mới trường nhập thông tin tìm kiếm</t>
-  </si>
-  <si>
-    <t>TC050</t>
-  </si>
-  <si>
-    <t>B1: Truy cập vào website https:/gavil.com/https://galvin.com.vn/
-B2: Chọn chức năng đăng nhập
-B3: Nhập Email: vanlamp18@gmail.com
-B4: Bỏ trống password
-B5: Nhấn "Đăng nhập"</t>
+    <t>Pre -Condition (Điều kiện trước)</t>
+  </si>
+  <si>
+    <t>Bỏ trống Họ và tên</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức thông tin tài khoản
+B3: Bỏ họ và tên
+B4: Nhập email: vanlamp18@gmail.com
+B5: Nhập địa chỉ: Thái Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trang chủ Viettien
+Hiển thị giao diện thông tin tài khoản
+Thông báo lỗi và yêu cầu nhập lại
+</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện thông tin tài khoản
+Thông báo "Họ tên không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Người dùng đã có tài khoản, đã đăng nhập đăng nhập</t>
+  </si>
+  <si>
+    <t>Bỏ trống email</t>
+  </si>
+  <si>
+    <t>Bỏ trống địa chỉ</t>
+  </si>
+  <si>
+    <t>B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức thông tin tài khoản
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Bỏ trống  email
+B5: Nhập địa chỉ: Thái Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1: Truy cập vào website https://viettien.vn/
+B2: Chọn chức thông tin tài khoản
+B3: Nhập họ và tên: Phạm Văn Lâm
+B4: Nhập email: vanlamp18@gmail.com
+B5: Bỏ trống họ và tên </t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện thông tin tài khoản
+Thông báo "Địa chỉ email không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện trang chủ, nhấn vào tài khoản mới hiện giao diện thông tin tài khoản
+Thông báo "Địa chỉ không được rỗng"
+Làm mới trường thông tin để người dùng nhập lại</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6F1A78-719B-4216-AD39-EAA8FC19B3E0}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1659,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="e">
@@ -1702,288 +1561,288 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="14" customFormat="1" ht="51">
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="61.2">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="51">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="61.2">
       <c r="A6" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" ht="50.25" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" ht="51">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="51">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="51">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="51">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51">
       <c r="A12" s="5" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="51">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="51">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2010,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A809BC-A23B-4794-89A0-75405BAAB0D4}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A11" sqref="A11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2068,16 +1927,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2" t="e">
-        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$985)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$973)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
         <v>#REF!</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$985))</f>
-        <v>Number of cases: 18</v>
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$973))</f>
+        <v>Number of cases: 6</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -2096,10 +1955,10 @@
         <v>8</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>11</v>
@@ -2111,461 +1970,198 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1" ht="163.19999999999999">
+    <row r="5" spans="1:9" s="23" customFormat="1" ht="132.6">
       <c r="A5" s="20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="193.8">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="153">
       <c r="A6" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="183.6">
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="153">
       <c r="A7" s="20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="193.8">
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="153">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="183.6">
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="163.19999999999999">
       <c r="A9" s="20" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="183.6">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="173.4">
       <c r="A10" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="193.8">
-      <c r="A11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="193.8">
-      <c r="A12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="193.8">
-      <c r="A13" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="193.8">
-      <c r="A14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="102">
-      <c r="A15" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="204">
-      <c r="A16" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="204">
-      <c r="A17" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="204">
-      <c r="A18" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="193.8">
-      <c r="A19" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="204">
-      <c r="A20" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="397.8">
-      <c r="A21" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="204">
-      <c r="A22" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="46"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="46"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="46"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="25"/>
+    <row r="11" spans="1:9" s="5" customFormat="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="25"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1">
+      <c r="A12" s="46"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="25"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="25"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2580,8 +2176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC6F986-8D20-4C5F-BF20-EDD5946ED283}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2633,7 +2229,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="27" t="e">
@@ -2680,311 +2276,311 @@
     </row>
     <row r="5" spans="1:9" ht="224.4">
       <c r="A5" s="35" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="234.6">
       <c r="A6" s="40" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="306">
       <c r="A7" s="35" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="40"/>
     </row>
     <row r="8" spans="1:9" ht="224.4">
       <c r="A8" s="40" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="306">
       <c r="A9" s="43" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" ht="275.39999999999998">
       <c r="A10" s="43" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="285.60000000000002">
       <c r="A11" s="43" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="306">
       <c r="A12" s="43" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="306">
       <c r="A13" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>128</v>
-      </c>
       <c r="F13" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="306">
       <c r="A14" s="43" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="306">
       <c r="A15" s="43" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="306">
       <c r="A16" s="43" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6">
       <c r="A17" s="43" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3001,8 +2597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C51B30-E071-41A4-92D5-E970833933E7}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3061,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="27" t="e">
@@ -3106,150 +2702,150 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="39" customFormat="1" ht="71.400000000000006">
+    <row r="5" spans="1:9" s="39" customFormat="1" ht="51">
       <c r="A5" s="35" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" s="19" customFormat="1" ht="183.6">
+    <row r="6" spans="1:9" s="19" customFormat="1" ht="129" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>58</v>
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="41"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" s="19" customFormat="1" ht="50.25" customHeight="1">
+    <row r="7" spans="1:9" s="19" customFormat="1" ht="139.19999999999999" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="41"/>
       <c r="I7" s="40"/>
     </row>
-    <row r="8" spans="1:9" s="19" customFormat="1" ht="163.19999999999999">
+    <row r="8" spans="1:9" s="19" customFormat="1" ht="122.4">
       <c r="A8" s="40" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="40"/>
     </row>
-    <row r="9" spans="1:9" ht="112.2">
+    <row r="9" spans="1:9" ht="71.400000000000006">
       <c r="A9" s="50" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>192</v>
+        <v>145</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="122.4">
       <c r="A10" s="50" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +2862,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3328,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="27" t="e">
@@ -3375,25 +2971,25 @@
     </row>
     <row r="5" spans="1:9" ht="173.4">
       <c r="A5" s="35" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="35"/>
@@ -3405,4 +3001,193 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994E1E3C-820E-448F-98D5-D2EAF5A1C6CE}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="e">
+        <f>"Pass: "&amp;COUNTIF(#REF!,"Pass")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="3" t="e">
+        <f>"Untested: "&amp;COUNTIF(#REF!,"Untest")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2" t="e">
+        <f>"Fail: "&amp;COUNTIF(#REF!,"Fail")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="3" t="e">
+        <f>"N/A: "&amp;COUNTIF(#REF!,"N/A")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="e">
+        <f>"Percent Complete: "&amp;ROUND((COUNTIF(#REF!,"Pass")*100)/((COUNTA($A$5:$A$980)*5)-COUNTIF(#REF!,"N/A")),2)&amp;"%"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>"Number of cases: "&amp;(COUNTA($A$5:$A$980))</f>
+        <v>Number of cases: 3</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="28.35" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="14" customFormat="1" ht="91.8">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="91.8">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Test report'!A1" display="Back to TestReport" xr:uid="{8ECDD9BC-F2FC-4672-AB2E-33F34AB50461}"/>
+    <hyperlink ref="B1" location="BugList!A1" display="To Buglist" xr:uid="{723A1F73-D732-4D62-BC0D-0848E1AAD473}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>